--- a/biology/Médecine/Liste_des_muscles_du_corps_humain/Liste_des_muscles_du_corps_humain.xlsx
+++ b/biology/Médecine/Liste_des_muscles_du_corps_humain/Liste_des_muscles_du_corps_humain.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La liste des muscles du corps humain est l'objet d'une organisation topographique de la part de la myologie, branche de l'anatomie qui traite des muscles.
 Le corps humain possède 639 muscles dont 570 muscles striés squelettiques (par opposition aux muscles lisses et au myocarde).
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Muscles de la face ou muscles de la mimique (43)
-Muscles superficiels (25)
+          <t>Muscles de la face ou muscles de la mimique (43)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Muscles superficiels (25)
 Muscle occipito-frontal (ou épicrânien, ventre frontal et occipital), impair, innervé par le nerf facial
 Muscles auriculaires (muscles antérieur, supérieur et postérieur)
 Muscle orbiculaire de l'œil (parties orbitaire, palpébrale et lacrymale)
@@ -534,26 +551,163 @@
 Muscle buccinateur
 Muscle élévateur (propre) de la lèvre supérieure (muscle moyen sus-maxillo-labial)
 Muscle abaisseur de la lèvre inférieure
-Muscle élévateur de l'angle de la bouche (muscle canin)
-Muscles de l'appareil manducateur ou muscles manducateurs (8)
-Muscle masséter (parties profonde et superficielle), innervé par le nerf massétérique
+Muscle élévateur de l'angle de la bouche (muscle canin)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Muscles de l'appareil manducateur ou muscles manducateurs (8)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscle masséter (parties profonde et superficielle), innervé par le nerf massétérique
 Muscle ptérygoïdien médial, innervé par le nerf mandibulaire
 Muscle ptérygoïdien latéral, innervé par le nerf mandibulaire
 Muscle temporal
 La posture et les fonctions mandibulaires dépendent aussi des muscles supra-hyoïdiens et des muscles infra-hyoïdiens (voir ci-dessous).
-Muscles oculomoteurs (14)
-Muscle élévateur de la paupière supérieure (orbito-palpébral), innervé par le nerf oculomoteur
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Muscles oculomoteurs (14)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Muscle élévateur de la paupière supérieure (orbito-palpébral), innervé par le nerf oculomoteur
 Muscle droit supérieur de l'œil, innervé par le nerf oculomoteur
 Muscle droit inférieur de l'œil, innervé par le nerf oculomoteur
 Muscle droit médial de l'œil, innervé par le nerf oculomoteur
 Muscle droit latéral de l'œil, innervé par le nerf abducens
 Muscle oblique supérieur de l'œil, innervé par le nerf trochléaire
-Muscle oblique inférieur de l'œil, innervé par le nerf oculomoteur
-Muscles de l'oreille moyenne (4)
-Muscle stapédien ou muscle de l'étrier, innervé par le nerf facial
-Muscle tenseur du tympan ou muscle du marteau, innervé par le nerf mandibulaire
-Muscles de la langue (17)
-Muscle longitudinal supérieur de la langue, impair, innervé par le nerf hypoglosse
+Muscle oblique inférieur de l'œil, innervé par le nerf oculomoteur</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Muscles de l'oreille moyenne (4)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Muscle stapédien ou muscle de l'étrier, innervé par le nerf facial
+Muscle tenseur du tympan ou muscle du marteau, innervé par le nerf mandibulaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Muscles de la langue (17)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Muscle longitudinal supérieur de la langue, impair, innervé par le nerf hypoglosse
 Muscle longitudinal inférieur de la langue, innervé par le nerf hypoglosse
 Muscle transverse de la langue, innervé par le nerf hypoglosse
 Muscle stylo-glosse, innervé par le nerf glossopharyngien
@@ -561,79 +715,319 @@
 Muscle hyo-glosse, innervé par le nerf hypoglosse
 Muscle palato-glosse, innervé par le nerf vague
 Muscle pharyngo-glosse (portion glosso-pharyngienne du muscle constricteur supérieur du pharynx)
-Muscle amygdalo-glosse (portion glosso-tonsillaire du muscle constricteur supérieur du pharynx)
-Muscles du palais mou (nasopharynx) (10)
-Muscle uvulaire, innervé par le nerf vague
+Muscle amygdalo-glosse (portion glosso-tonsillaire du muscle constricteur supérieur du pharynx)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Muscles du palais mou (nasopharynx) (10)</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Muscle uvulaire, innervé par le nerf vague
 Muscle tenseur du voile du palais, innervé par le nerf mandibulaire
 Muscle élévateur du voile du palais, innervé par le nerf petit palatin
 Muscle palatoglosse
-Muscle palatopharyngien
-Muscles supra-hyoïdiens (8)
-Muscle stylo-hyoïdien, innervé par le nerf facial
+Muscle palatopharyngien</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Tête (94)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Muscles supra-hyoïdiens (8)</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Muscle stylo-hyoïdien, innervé par le nerf facial
 Muscle génio-hyoïdien
 Muscle mylo-hyoïdien, innervé par le nerf mandibulaire
 Muscle digastrique (digastrique génio-hyo-mastoïdien), , innervé par le nerf mandibulaire</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Cou (85)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Muscle platysma ou muscle peaucier du cou, innervé par le nerf facial
-Muscles infra-hyoïdiens (8)
-Muscle sterno-cléido-mastoïdien (sterno-cléido-occipito-mastoïdien), innervé par le nerf accessoire
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Muscle platysma ou muscle peaucier du cou, innervé par le nerf facial</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Cou (85)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Muscles infra-hyoïdiens (8)</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Muscle sterno-cléido-mastoïdien (sterno-cléido-occipito-mastoïdien), innervé par le nerf accessoire
 Muscle sterno-hyoïdien (sterno-cléido-hyoïdien), innervé par le nerf hypoglosse
 Muscle sterno-thyroïdien (sterno-cléido-thyroïdien)
-Muscle omo-hyoïdien (digastrique scapulo-jugulo-hyoïdien)
-Muscles du pharynx (oro- et laryngo-) (17)
-Muscle palato-pharyngien, innervé par le nerf vague
+Muscle omo-hyoïdien (digastrique scapulo-jugulo-hyoïdien)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Cou (85)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Muscles du pharynx (oro- et laryngo-) (17)</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Muscle palato-pharyngien, innervé par le nerf vague
 Muscles constricteurs du pharynx (muscles supérieur, moyen et inférieur), muscles pairs
 Muscles longitudinaux du pharynx
 Muscle stylo-pharyngien
 Muscle pétro-pharyngien
 Muscle salpingo-pharyngien (trompe auditive)
 Muscle crico-pharyngien (portion cricoïdienne du muscle constricteur inférieur du pharynx)
-Muscles œsophagiens (couche circulaire et longitudinale)
-Muscles du larynx (20)
-Muscle vocal, innervé par le nerf vague
+Muscles œsophagiens (couche circulaire et longitudinale)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Cou (85)</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Muscles du larynx (20)</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Muscle vocal, innervé par le nerf vague
 Muscles aryténoïdiens (muscles transverse et oblique)
 Muscle ary-épiglottique
 Muscles crico-thyroïdiens (muscles droit et oblique)
 Muscles crico-aryténoïdiens (muscles postérieur et latéral)
 Muscle thyro-aryténoïdien
-Muscle thyro-hyoïdien
-Muscles cervicaux antérieurs (10)
-Muscles scalènes, scaleni, innervés par les nerfs spinaux
+Muscle thyro-hyoïdien</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Cou (85)</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Muscles cervicaux antérieurs (10)</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Muscles scalènes, scaleni, innervés par les nerfs spinaux
 muscle scalène antérieur, scalenus anterior
 muscle scalène moyen, scalenus medius
 muscle scalène postérieur, scalenus posterior
 Muscle long de la tête, longus capitis
-Muscle long du cou, longus colli
-Muscles de la nuque (28)
-Muscles superficiels (2)
+Muscle long du cou, longus colli</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Cou (85)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Muscles de la nuque (28)</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Muscles superficiels (2)
 Muscle trapèze, innervé par le nerf accessoire
 Muscles moyens superficiels (6)
 Muscle splénius du cou (cervicis), innervé par les nerfs spinaux
@@ -654,69 +1048,252 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Tronc (90)</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Thorax (91)
-Muscles intercostaux (66)
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Thorax (91)</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Muscles intercostaux (66)
 externes
 moyens
 internes
 Diaphragme
 Muscles subcostaux
-Muscle thoracique transverse, transversus thoracis
-Dos
-Muscles interépineux des lombes
+Muscle thoracique transverse, transversus thoracis</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Tronc (90)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Muscles interépineux des lombes
 Muscles intertransversaires des lombes
 médiaux
 latéraux
 Muscle carré des lombes quadratus lumborum
 Muscles élévateurs des côtes
 courts
-longs
-Muscles transversaires-épineux
-Muscles rotateurs
+longs</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Tronc (90)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Muscles transversaires-épineux</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Muscles rotateurs
 courts
 longs
 Muscle multifides
-Muscle semi-épineux du thorax
-Muscles érecteurs du rachis
-Muscle épineux du thorax
+Muscle semi-épineux du thorax</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Tronc (90)</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Dos</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Muscles érecteurs du rachis</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Muscle épineux du thorax
 Muscle longissimus du thorax
 Muscle ilio-costal
 Muscle dentelé postéro-supérieur
-Muscle dentelé postéro-inférieur
-Abdomen (10)
-Muscle droit de l'abdomen, rectus abdominis, innervé par le nerf subcostal, le nerf génito-fémoral et les nerfs intercostaux
+Muscle dentelé postéro-inférieur</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Tronc (90)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Abdomen (10)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Muscle droit de l'abdomen, rectus abdominis, innervé par le nerf subcostal, le nerf génito-fémoral et les nerfs intercostaux
 Muscle oblique externe de l'abdomen, obliquus externus abdominis, innervé par le nerf subcostal et les nerfs intercostaux
 Muscle pyramidal de l'abdomen, pyramidalis, innervé par le nerf subcostal
 Muscle oblique interne de l'abdomen, obliquus internus abdominis, innervé par le nerf subcostal, le nerf ilio-hypogastrique, le nerf ilio-inguinal et les nerfs intercostaux
-Muscle transverse de l'abdomen, transversus abdominis, innervé par le nerf subcostal, le nerf ilio-hypogastrique, le nerf ilio-inguinal et les nerfs intercostaux
-Plancher pelvien (13)
-Muscle bulbo-caverneux
+Muscle transverse de l'abdomen, transversus abdominis, innervé par le nerf subcostal, le nerf ilio-hypogastrique, le nerf ilio-inguinal et les nerfs intercostaux</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Tronc (90)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Plancher pelvien (13)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscle bulbo-caverneux
 Muscle ischio-caverneux
 Muscles transverses du périnée (superficiel et profond)
 Muscle releveur de la verge
@@ -730,42 +1307,88 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
         <is>
           <t>Membre supérieur (118)</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Muscles de l'épaule (muscles périthoraciques) (32)
-Muscles antérieurs
-Muscle élévateur de la scapula, levator scapulae, innervé par le nerf scapulaire dorsal
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Muscles de l'épaule (muscles périthoraciques) (32)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Muscles antérieurs</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Muscle élévateur de la scapula, levator scapulae, innervé par le nerf scapulaire dorsal
 Muscle dentelé antérieur, serratus anterior, innervé par le nerf thoracique long
 Muscle coraco-brachial, coracobrachialis, innervé par le nerf musculocutané
 Muscle petit pectoral, pectoralis minor, innervé par le nerf pectoral
 Muscle grand pectoral, pectoralis major, innervé par l'anse des pectoraux
-Muscle subclavier, subclavius, innervé par le nerf subclavier
-Muscles postérieurs
-Muscle trapèze*, trapezius, innervé par le nerf accessoire
+Muscle subclavier, subclavius, innervé par le nerf subclavier</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Muscles de l'épaule (muscles périthoraciques) (32)</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Muscles postérieurs</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscle trapèze*, trapezius, innervé par le nerf accessoire
 Muscle petit rhomboïde, rhomboideus minor, innervé par le nerf scapulaire dorsal
 Muscle grand rhomboïde, rhomboideus major, innervé par le nerf scapulaire dorsal
 Muscle grand dorsal, latissimus dorsi, innervé par le nerf thoraco-dorsal
@@ -776,128 +1399,759 @@
 Muscle petit rond, teres minor, innervé par le nerf axillaire
 Muscle grand rond, teres major, innervé par le nerf subscapulaire inférieur
 (* déjà compté dans le cou)
-Muscles du bras (6)
-Muscle brachial, brachialis, innervé par le nerf musculocutané
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Muscles du bras (6)</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscle brachial, brachialis, innervé par le nerf musculocutané
 Muscle biceps brachial, biceps brachii, innervé par le nerf musculocutané
 Muscle triceps brachial, triceps brachii, innervé par le nerf axillaire et le nerf musculocutané
 Anconé, innervé par le nerf radial
-Muscles de l'avant-bras (20)
-Muscles antérieurs (8)
-Muscle carré pronateur, pronator quadratus, innervé par le nerf median
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Muscles de l'avant-bras (20)</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Muscles antérieurs (8)</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Muscle carré pronateur, pronator quadratus, innervé par le nerf median
 Muscle rond pronateur, pronator teres, innervé par le nerf median
 Muscle fléchisseur radial du carpe, flexor carpi radialis, innervé par le nerf median
 Muscle fléchisseur ulnaire du carpe, flexor carpi ulnaris, innervé par le nerf ulnaire
 Muscle fléchisseur profond des doigts, flexor digitorum profundus, 'innervé par le nerf median et le nerf ulnaire
 Muscle fléchisseur superficiel des doigts, flexor digitorum superficialis, innervé par le nerf median
 Muscle long fléchisseur du pouce, flexor pollicis longus, innervé par le nerf median
-Muscle long palmaire, palmaris longus, innervé par le nerf median
-Muscles postérieurs (8)
-Muscle anconé, anconeus, innervé par le nerf radial
+Muscle long palmaire, palmaris longus, innervé par le nerf median</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Muscles de l'avant-bras (20)</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Muscles postérieurs (8)</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Muscle anconé, anconeus, innervé par le nerf radial
 Muscle extenseur des doigts, extensor digitorum, innervé par le nerf radial
 Muscle extenseur ulnaire du carpe, extensor carpi ulnaris, innervé par le nerf radial
 Muscle long abducteur du pouce, abductor pollicis longus, innervé par le nerf radial
 Muscle court extenseur du pouce, extensor pollicis brevis, innervé par le nerf radial
 Muscle long extenseur du pouce, extensor pollicis longus, innervé par le nerf radial
 Muscle extenseur du petit doigt, extensor digiti minimi, innervé par le nerf radial
-Muscle extenseur de l'index, extensor indicis proprius, innervé par le nerf radial
-Muscles latéraux (4)
-Muscle supinateur, supinator, innervé par le nerf radial
+Muscle extenseur de l'index, extensor indicis proprius, innervé par le nerf radial</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Muscles de l'avant-bras (20)</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Muscles latéraux (4)</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Muscle supinateur, supinator, innervé par le nerf radial
 Muscle brachio-radial, brachioradialis, innervé par le nerf radial
 Muscle long extenseur radial du carpe, extensor carpi radialis longus, innervé par le nerf radial
-Muscle court extenseur radial du carpe, extensor carpi radialis brevis, innervé par le nerf radial
-Muscles de la main (40)
-Muscle court palmaire, palmaris brevis, innervé par le nerf ulnaire
-Muscles de l'éminence thénar (8)
-Muscle adducteur du pouce, adductor pollicis, innervé par le nerf ulnaire
+Muscle court extenseur radial du carpe, extensor carpi radialis brevis, innervé par le nerf radial</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Muscles de la main (40)</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Muscle court palmaire, palmaris brevis, innervé par le nerf ulnaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Muscles de la main (40)</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Muscles de l'éminence thénar (8)</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Muscle adducteur du pouce, adductor pollicis, innervé par le nerf ulnaire
 Muscle opposant du pouce, opponens pollicis, innervé par le nerf median
 Muscle court abducteur du pouce, abductor pollicis brevis, innervé par le nerf median
-Muscle court fléchisseur du pouce, flexor pollicis brevis, innervé par le nerf median et le nerf ulnaire
-Muscles de l'éminence hypothénar (6)
-Muscle abducteur du petit doigt de la main, abductor digiti minimi, innervé par le nerf ulnaire
+Muscle court fléchisseur du pouce, flexor pollicis brevis, innervé par le nerf median et le nerf ulnaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Muscles de la main (40)</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Muscles de l'éminence hypothénar (6)</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Muscle abducteur du petit doigt de la main, abductor digiti minimi, innervé par le nerf ulnaire
 Muscle fléchisseur du petit doigt, flexor digiti minimi, innervé par le nerf ulnaire
-Muscle opposant du petit doigt de la main, opponens digiti minimi, innervé par le nerf ulnaire
-Groupe moyen (24)
-Muscles interosseux dorsaux de la main, interossei dorsalis manus, innervés par le nerf ulnaire
+Muscle opposant du petit doigt de la main, opponens digiti minimi, innervé par le nerf ulnaire</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Membre supérieur (118)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Muscles de la main (40)</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Groupe moyen (24)</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Muscles interosseux dorsaux de la main, interossei dorsalis manus, innervés par le nerf ulnaire
 Muscles interosseux palmaires, interossei palmaris, innervés par le nerf ulnaire
 Muscles lombricaux, lumbricalis manus, innervé par le nerf median et le nerf ulnaire</t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
         <is>
           <t>Membre inférieur (96)</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ceinture pelvienne (4)
-Muscle ilio-psoas
-Muscle petit psoas
-Muscles glutéaux (fessiers) (8)
-Muscle grand glutéal, gluteus maximus, innervé par le nerf glutéal inférieur
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Ceinture pelvienne (4)</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Muscle ilio-psoas
+Muscle petit psoas</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Muscles glutéaux (fessiers) (8)</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Muscle grand glutéal, gluteus maximus, innervé par le nerf glutéal inférieur
 Muscle moyen glutéal, gluteus medius, innervé par le nerf glutéal supérieur
 Muscle petit glutéal, gluteus minimus, innervé par le nerf glutéal supérieur
-Muscle tenseur du fascia lata, tensior fasciae latae, innervé par le nerf glutéal supérieur
-Muscles pelvi-trochantériens (12)
-Muscle obturateur externe, obturatorius externus
+Muscle tenseur du fascia lata, tensior fasciae latae, innervé par le nerf glutéal supérieur</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Muscles pelvi-trochantériens (12)</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr"/>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Muscle obturateur externe, obturatorius externus
 Muscle piriforme, piriformis
 Muscle jumeau inférieur, gemellus inferior'
 Muscle jumeau supérieur, gemellus superior
 Muscle obturateur interne, obturatorius internus
-Muscle carré fémoral, quadratus femoris
-Muscles de la cuisse (22)
-Loge antérieure
-Muscle sartorius*, sartorius, innervé par le nerf fémoral
+Muscle carré fémoral, quadratus femoris</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Muscles de la cuisse (22)</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Loge antérieure</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Muscle sartorius*, sartorius, innervé par le nerf fémoral
 Muscle quadriceps fémoral, quadriceps femoris, innervé par le nerf fémoral. Il est composé par quatre chefs : les muscles droit fémoral, vaste latéral, vaste médial et vaste intermédiaire.
-Muscle articulaire du genou, articularis genus, innervé par le nerf fémoral
-Loge des muscles adducteurs
-Muscle pectiné, pectineus, innervé par le nerf fémoral et le nerf obturateur
+Muscle articulaire du genou, articularis genus, innervé par le nerf fémoral</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Muscles de la cuisse (22)</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Loge des muscles adducteurs</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Muscle pectiné, pectineus, innervé par le nerf fémoral et le nerf obturateur
 Muscle long adducteur, adductor longus, innervé par le nerf obturateur
 Muscle court adducteur, adductor brevis, innervé par le nerf obturateur
 Muscle grand adducteur, adductor magnus, innervé par le nerf obturateur (faisceaux supérieur et moyen) et par le nerf sciatique (faisceau inférieur)
-Muscle gracile*, gracilis, innervé par le nerf obturateur
-Loge des muscles ischio-jambiers (3)
-Muscle semi-tendineux*, semitendinosus, innervé par le nerf sciatique
+Muscle gracile*, gracilis, innervé par le nerf obturateur</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Muscles de la cuisse (22)</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Loge des muscles ischio-jambiers (3)</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Muscle semi-tendineux*, semitendinosus, innervé par le nerf sciatique
 Muscle semi-membraneux, semimembranosus, innervé par le nerf sciatique
 Muscle biceps fémoral, biceps femoris, innervé par le nerf sciatique
 (* muscles de la patte d'oie)
-Muscles de la jambe (24)
-Loge antérieure
-Muscle tibial antérieur, tibialis anterior, innervé par le nerf fibulaire profond
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Muscles de la jambe (24)</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Loge antérieure</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Muscle tibial antérieur, tibialis anterior, innervé par le nerf fibulaire profond
 Muscle long extenseur de l'hallux, extensor hallucis longus, innervé par le nerf fibulaire profond
 Muscle troisième fibulaire, fibularis tertius, innervé par le nerf fibulaire profond
-Muscle long extenseur des orteils, extensorum digitorum longus, innervé par le nerf fibulaire profond
-Loge postérieure (mollet)
-Muscle triceps sural triceps surae, formé par la réunion des muscles soléaire solearis et gastrocnémien gastrocnemius, ce-dernier correspondant à l'union des muscles jumeaux interne et externe. Innervé par le nerf tibial
+Muscle long extenseur des orteils, extensorum digitorum longus, innervé par le nerf fibulaire profond</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Muscles de la jambe (24)</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Loge postérieure (mollet)</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Muscle triceps sural triceps surae, formé par la réunion des muscles soléaire solearis et gastrocnémien gastrocnemius, ce-dernier correspondant à l'union des muscles jumeaux interne et externe. Innervé par le nerf tibial
 Muscle plantaire, plantaris, innervé par le nerf tibial
 Muscle poplité, popliteus, innervé par le nerf tibial
 Muscle tibial postérieur, tibialis posterior', innervé par le nerf tibial
 Muscle long fléchisseur des orteils, flexor digitorum longus, innervé par le nerf tibial
-Muscle long fléchisseur du gros orteil, flexor hallucis longus, innervé par le nerf tibial
-Loge latérale
-Muscle long fibulaire, fibularis longus, innervé par le nerf fibulaire superficiel
-Muscle court fibulaire, fibularis brevis, innervé par le nerf fibulaire superficiel
-Muscles du pied (pédieux) (26)
-Muscle abducteur de l'hallux, abductor hallucis, innervé par le nerf plantaire médial
+Muscle long fléchisseur du gros orteil, flexor hallucis longus, innervé par le nerf tibial</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Muscles de la jambe (24)</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Loge latérale</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Muscle long fibulaire, fibularis longus, innervé par le nerf fibulaire superficiel
+Muscle court fibulaire, fibularis brevis, innervé par le nerf fibulaire superficiel</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_muscles_du_corps_humain</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Membre inférieur (96)</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Muscles du pied (pédieux) (26)</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr"/>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Muscle abducteur de l'hallux, abductor hallucis, innervé par le nerf plantaire médial
 Muscle court extenseur des orteils, extensorum digitorum brevis, innervé par le nerf fibulaire profond
 Muscle adducteur de l'hallux, adductor hallucis, innervé par le nerf plantaire latéral et le nerf plantaire médial
 Muscle carré plantaire, quadratus plantae, innervé par le nerf plantaire latéral
